--- a/xlsx/sc_FishRankLevelData.xlsx
+++ b/xlsx/sc_FishRankLevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F912E77-BF21-4414-9A9E-BA817429FB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D12C1DB-53A0-4FE3-9634-5E9EFF28AA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="3165" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="4395" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -95,25 +95,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI_RankIcon_1</t>
-  </si>
-  <si>
-    <t>UI_RankIcon_2</t>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI_RankIcon_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_RankIcon_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_RankIcon_5</t>
+    <t>UI_RankIcon_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_RankIcon_45</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1408,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1382,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1400,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1415,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1430,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1445,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1505,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1520,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1565,7 +1627,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1580,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1595,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1625,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1640,7 +1702,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1655,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1670,7 +1732,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
